--- a/excel_code/statistic_demo/failed_test_suits.xlsx
+++ b/excel_code/statistic_demo/failed_test_suits.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -8143,8 +8143,8 @@
   </sheetPr>
   <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -12133,13 +12133,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="AP7" pane="bottomLeft" sqref="AP7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="52.453125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="5" min="3" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="12" min="6" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="15" min="15" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="17" min="17" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="19" min="18" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="20" min="20" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="24" min="21" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="26" min="25" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="29" min="27" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="30" min="30" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="31" min="31" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="35" min="32" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="36" min="36" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="37" min="37" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="38" min="38" width="14.6328125"/>
+    <col bestFit="1" customWidth="1" max="39" min="39" width="13.54296875"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
@@ -12351,6 +12375,10 @@
       <c r="E2" t="n">
         <v>4</v>
       </c>
+      <c r="AN2">
+        <f>SUM(B2:AM2)</f>
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12367,6 +12395,10 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="AN3">
+        <f>SUM(B3:AM3)</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -12377,6 +12409,10 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
+      <c r="AN4">
+        <f>SUM(B4:AM4)</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -12387,6 +12423,10 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="AN5">
+        <f>SUM(B5:AM5)</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12406,6 +12446,10 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
+      <c r="AN6">
+        <f>SUM(B6:AM6)</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12428,6 +12472,10 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
+      <c r="AN7">
+        <f>SUM(B7:AM7)</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12447,6 +12495,10 @@
       <c r="R8" t="n">
         <v>1</v>
       </c>
+      <c r="AN8">
+        <f>SUM(B8:AM8)</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12466,6 +12518,10 @@
       <c r="U9" t="n">
         <v>1</v>
       </c>
+      <c r="AN9">
+        <f>SUM(B9:AM9)</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12479,6 +12535,10 @@
       <c r="V10" t="n">
         <v>1</v>
       </c>
+      <c r="AN10">
+        <f>SUM(B10:AM10)</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12498,6 +12558,10 @@
       <c r="Y11" t="n">
         <v>1</v>
       </c>
+      <c r="AN11">
+        <f>SUM(B11:AM11)</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12532,6 +12596,10 @@
       <c r="AA12" t="n">
         <v>1</v>
       </c>
+      <c r="AN12">
+        <f>SUM(B12:AM12)</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12548,6 +12616,10 @@
       <c r="AC13" t="n">
         <v>1</v>
       </c>
+      <c r="AN13">
+        <f>SUM(B13:AM13)</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12582,6 +12654,10 @@
       <c r="AF14" t="n">
         <v>1</v>
       </c>
+      <c r="AN14">
+        <f>SUM(B14:AM14)</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12598,6 +12674,10 @@
       <c r="AG15" t="n">
         <v>3</v>
       </c>
+      <c r="AN15">
+        <f>SUM(B15:AM15)</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12614,6 +12694,10 @@
       <c r="AH16" t="n">
         <v>1</v>
       </c>
+      <c r="AN16">
+        <f>SUM(B16:AM16)</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12624,6 +12708,10 @@
       <c r="Y17" t="n">
         <v>1</v>
       </c>
+      <c r="AN17">
+        <f>SUM(B17:AM17)</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12643,6 +12731,10 @@
       <c r="AI18" t="n">
         <v>1</v>
       </c>
+      <c r="AN18">
+        <f>SUM(B18:AM18)</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -12665,6 +12757,10 @@
       <c r="AJ19" t="n">
         <v>1</v>
       </c>
+      <c r="AN19">
+        <f>SUM(B19:AM19)</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -12687,6 +12783,10 @@
       <c r="AB20" t="n">
         <v>1</v>
       </c>
+      <c r="AN20">
+        <f>SUM(B20:AM20)</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -12703,6 +12803,10 @@
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
+      <c r="AN21">
+        <f>SUM(B21:AM21)</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -12716,6 +12820,10 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
+      <c r="AN22">
+        <f>SUM(B22:AM22)</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -12738,6 +12846,10 @@
       <c r="AA23" t="n">
         <v>3</v>
       </c>
+      <c r="AN23">
+        <f>SUM(B23:AM23)</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -12766,6 +12878,10 @@
       <c r="AK24" t="n">
         <v>1</v>
       </c>
+      <c r="AN24">
+        <f>SUM(B24:AM24)</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -12797,6 +12913,10 @@
       <c r="AK25" t="n">
         <v>1</v>
       </c>
+      <c r="AN25">
+        <f>SUM(B25:AM25)</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -12831,6 +12951,10 @@
       <c r="AL26" t="n">
         <v>1</v>
       </c>
+      <c r="AN26">
+        <f>SUM(B26:AM26)</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12844,6 +12968,10 @@
       <c r="AD27" t="n">
         <v>1</v>
       </c>
+      <c r="AN27">
+        <f>SUM(B27:AM27)</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12854,6 +12982,10 @@
       <c r="T28" t="n">
         <v>1</v>
       </c>
+      <c r="AN28">
+        <f>SUM(B28:AM28)</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12888,6 +13020,10 @@
       <c r="AM29" t="n">
         <v>2</v>
       </c>
+      <c r="AN29">
+        <f>SUM(B29:AM29)</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12904,6 +13040,10 @@
       <c r="AI30" t="n">
         <v>1</v>
       </c>
+      <c r="AN30">
+        <f>SUM(B30:AM30)</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12923,6 +13063,10 @@
       <c r="R31" t="n">
         <v>1</v>
       </c>
+      <c r="AN31">
+        <f>SUM(B31:AM31)</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12933,6 +13077,10 @@
       <c r="G32" t="n">
         <v>1</v>
       </c>
+      <c r="AN32">
+        <f>SUM(B32:AM32)</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12952,6 +13100,10 @@
       <c r="AM33" t="n">
         <v>1</v>
       </c>
+      <c r="AN33">
+        <f>SUM(B33:AM33)</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12968,6 +13120,10 @@
       <c r="AF34" t="n">
         <v>1</v>
       </c>
+      <c r="AN34">
+        <f>SUM(B34:AM34)</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12981,6 +13137,10 @@
       <c r="AM35" t="n">
         <v>2</v>
       </c>
+      <c r="AN35">
+        <f>SUM(B35:AM35)</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12997,6 +13157,10 @@
       <c r="AA36" t="n">
         <v>1</v>
       </c>
+      <c r="AN36">
+        <f>SUM(B36:AM36)</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13013,6 +13177,10 @@
       <c r="AJ37" t="n">
         <v>2</v>
       </c>
+      <c r="AN37">
+        <f>SUM(B37:AM37)</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13026,6 +13194,10 @@
       <c r="AA38" t="n">
         <v>1</v>
       </c>
+      <c r="AN38">
+        <f>SUM(B38:AM38)</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -13039,6 +13211,10 @@
       <c r="AE39" t="n">
         <v>1</v>
       </c>
+      <c r="AN39">
+        <f>SUM(B39:AM39)</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -13052,6 +13228,10 @@
       <c r="R40" t="n">
         <v>1</v>
       </c>
+      <c r="AN40">
+        <f>SUM(B40:AM40)</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -13062,6 +13242,10 @@
       <c r="J41" t="n">
         <v>1</v>
       </c>
+      <c r="AN41">
+        <f>SUM(B41:AM41)</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -13072,6 +13256,10 @@
       <c r="AG42" t="n">
         <v>1</v>
       </c>
+      <c r="AN42">
+        <f>SUM(B42:AM42)</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -13088,6 +13276,10 @@
       <c r="AI43" t="n">
         <v>1</v>
       </c>
+      <c r="AN43">
+        <f>SUM(B43:AM43)</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -13098,6 +13290,10 @@
       <c r="AK44" t="n">
         <v>1</v>
       </c>
+      <c r="AN44">
+        <f>SUM(B44:AM44)</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -13111,6 +13307,10 @@
       <c r="AE45" t="n">
         <v>1</v>
       </c>
+      <c r="AN45">
+        <f>SUM(B45:AM45)</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -13127,6 +13327,10 @@
       <c r="AJ46" t="n">
         <v>1</v>
       </c>
+      <c r="AN46">
+        <f>SUM(B46:AM46)</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -13143,6 +13347,10 @@
       <c r="AK47" t="n">
         <v>1</v>
       </c>
+      <c r="AN47">
+        <f>SUM(B47:AM47)</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -13156,6 +13364,10 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
+      <c r="AN48">
+        <f>SUM(B48:AM48)</f>
+        <v/>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -13166,6 +13378,10 @@
       <c r="AM49" t="n">
         <v>1</v>
       </c>
+      <c r="AN49">
+        <f>SUM(B49:AM49)</f>
+        <v/>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13179,6 +13395,10 @@
       <c r="AH50" t="n">
         <v>1</v>
       </c>
+      <c r="AN50">
+        <f>SUM(B50:AM50)</f>
+        <v/>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13198,6 +13418,10 @@
       <c r="AK51" t="n">
         <v>1</v>
       </c>
+      <c r="AN51">
+        <f>SUM(B51:AM51)</f>
+        <v/>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13211,6 +13435,10 @@
       <c r="AD52" t="n">
         <v>1</v>
       </c>
+      <c r="AN52">
+        <f>SUM(B52:AM52)</f>
+        <v/>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13221,6 +13449,10 @@
       <c r="Y53" t="n">
         <v>1</v>
       </c>
+      <c r="AN53">
+        <f>SUM(B53:AM53)</f>
+        <v/>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13231,6 +13463,10 @@
       <c r="U54" t="n">
         <v>1</v>
       </c>
+      <c r="AN54">
+        <f>SUM(B54:AM54)</f>
+        <v/>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -13241,6 +13477,10 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
+      <c r="AN55">
+        <f>SUM(B55:AM55)</f>
+        <v/>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13254,6 +13494,10 @@
       <c r="AD56" t="n">
         <v>1</v>
       </c>
+      <c r="AN56">
+        <f>SUM(B56:AM56)</f>
+        <v/>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13270,6 +13514,10 @@
       <c r="U57" t="n">
         <v>1</v>
       </c>
+      <c r="AN57">
+        <f>SUM(B57:AM57)</f>
+        <v/>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13280,6 +13528,10 @@
       <c r="AF58" t="n">
         <v>1</v>
       </c>
+      <c r="AN58">
+        <f>SUM(B58:AM58)</f>
+        <v/>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13296,6 +13548,10 @@
       <c r="Q59" t="n">
         <v>1</v>
       </c>
+      <c r="AN59">
+        <f>SUM(B59:AM59)</f>
+        <v/>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13318,6 +13574,10 @@
       <c r="AF60" t="n">
         <v>1</v>
       </c>
+      <c r="AN60">
+        <f>SUM(B60:AM60)</f>
+        <v/>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13328,6 +13588,10 @@
       <c r="P61" t="n">
         <v>1</v>
       </c>
+      <c r="AN61">
+        <f>SUM(B61:AM61)</f>
+        <v/>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13338,6 +13602,10 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
+      <c r="AN62">
+        <f>SUM(B62:AM62)</f>
+        <v/>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13348,6 +13616,10 @@
       <c r="S63" t="n">
         <v>1</v>
       </c>
+      <c r="AN63">
+        <f>SUM(B63:AM63)</f>
+        <v/>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13358,6 +13630,10 @@
       <c r="AE64" t="n">
         <v>1</v>
       </c>
+      <c r="AN64">
+        <f>SUM(B64:AM64)</f>
+        <v/>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13368,6 +13644,10 @@
       <c r="AC65" t="n">
         <v>1</v>
       </c>
+      <c r="AN65">
+        <f>SUM(B65:AM65)</f>
+        <v/>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13381,6 +13661,10 @@
       <c r="AE66" t="n">
         <v>1</v>
       </c>
+      <c r="AN66">
+        <f>SUM(B66:AM66)</f>
+        <v/>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13391,6 +13675,10 @@
       <c r="AH67" t="n">
         <v>1</v>
       </c>
+      <c r="AN67">
+        <f>SUM(B67:AM67)</f>
+        <v/>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13404,6 +13692,10 @@
       <c r="AL68" t="n">
         <v>1</v>
       </c>
+      <c r="AN68">
+        <f>SUM(B68:AM68)</f>
+        <v/>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13417,6 +13709,10 @@
       <c r="L69" t="n">
         <v>1</v>
       </c>
+      <c r="AN69">
+        <f>SUM(B69:AM69)</f>
+        <v/>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13433,6 +13729,10 @@
       <c r="AJ70" t="n">
         <v>1</v>
       </c>
+      <c r="AN70">
+        <f>SUM(B70:AM70)</f>
+        <v/>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13443,6 +13743,10 @@
       <c r="R71" t="n">
         <v>1</v>
       </c>
+      <c r="AN71">
+        <f>SUM(B71:AM71)</f>
+        <v/>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13453,6 +13757,10 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="AN72">
+        <f>SUM(B72:AM72)</f>
+        <v/>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13463,6 +13771,10 @@
       <c r="AD73" t="n">
         <v>1</v>
       </c>
+      <c r="AN73">
+        <f>SUM(B73:AM73)</f>
+        <v/>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13473,6 +13785,10 @@
       <c r="AE74" t="n">
         <v>1</v>
       </c>
+      <c r="AN74">
+        <f>SUM(B74:AM74)</f>
+        <v/>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13483,6 +13799,10 @@
       <c r="AK75" t="n">
         <v>1</v>
       </c>
+      <c r="AN75">
+        <f>SUM(B75:AM75)</f>
+        <v/>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13493,6 +13813,10 @@
       <c r="X76" t="n">
         <v>1</v>
       </c>
+      <c r="AN76">
+        <f>SUM(B76:AM76)</f>
+        <v/>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13503,6 +13827,10 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="AN77">
+        <f>SUM(B77:AM77)</f>
+        <v/>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13513,6 +13841,10 @@
       <c r="R78" t="n">
         <v>1</v>
       </c>
+      <c r="AN78">
+        <f>SUM(B78:AM78)</f>
+        <v/>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -13523,6 +13855,10 @@
       <c r="AD79" t="n">
         <v>1</v>
       </c>
+      <c r="AN79">
+        <f>SUM(B79:AM79)</f>
+        <v/>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -13539,6 +13875,10 @@
       <c r="AC80" t="n">
         <v>1</v>
       </c>
+      <c r="AN80">
+        <f>SUM(B80:AM80)</f>
+        <v/>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -13549,6 +13889,10 @@
       <c r="AM81" t="n">
         <v>1</v>
       </c>
+      <c r="AN81">
+        <f>SUM(B81:AM81)</f>
+        <v/>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -13559,6 +13903,10 @@
       <c r="I82" t="n">
         <v>1</v>
       </c>
+      <c r="AN82">
+        <f>SUM(B82:AM82)</f>
+        <v/>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13569,6 +13917,10 @@
       <c r="AF83" t="n">
         <v>1</v>
       </c>
+      <c r="AN83">
+        <f>SUM(B83:AM83)</f>
+        <v/>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13579,6 +13931,10 @@
       <c r="Q84" t="n">
         <v>1</v>
       </c>
+      <c r="AN84">
+        <f>SUM(B84:AM84)</f>
+        <v/>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13590,8 +13946,163 @@
         <v>1</v>
       </c>
     </row>
+    <row r="86">
+      <c r="B86">
+        <f>SUM(B2:B85)</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <f>SUM(C2:C85)</f>
+        <v/>
+      </c>
+      <c r="D86">
+        <f>SUM(D2:D85)</f>
+        <v/>
+      </c>
+      <c r="E86">
+        <f>SUM(E2:E85)</f>
+        <v/>
+      </c>
+      <c r="F86">
+        <f>SUM(F2:F85)</f>
+        <v/>
+      </c>
+      <c r="G86">
+        <f>SUM(G2:G85)</f>
+        <v/>
+      </c>
+      <c r="H86">
+        <f>SUM(H2:H85)</f>
+        <v/>
+      </c>
+      <c r="I86">
+        <f>SUM(I2:I85)</f>
+        <v/>
+      </c>
+      <c r="J86">
+        <f>SUM(J2:J85)</f>
+        <v/>
+      </c>
+      <c r="K86">
+        <f>SUM(K2:K85)</f>
+        <v/>
+      </c>
+      <c r="L86">
+        <f>SUM(L2:L85)</f>
+        <v/>
+      </c>
+      <c r="M86">
+        <f>SUM(M2:M85)</f>
+        <v/>
+      </c>
+      <c r="N86">
+        <f>SUM(N2:N85)</f>
+        <v/>
+      </c>
+      <c r="O86">
+        <f>SUM(O2:O85)</f>
+        <v/>
+      </c>
+      <c r="P86">
+        <f>SUM(P2:P85)</f>
+        <v/>
+      </c>
+      <c r="Q86">
+        <f>SUM(Q2:Q85)</f>
+        <v/>
+      </c>
+      <c r="R86">
+        <f>SUM(R2:R85)</f>
+        <v/>
+      </c>
+      <c r="S86">
+        <f>SUM(S2:S85)</f>
+        <v/>
+      </c>
+      <c r="T86">
+        <f>SUM(T2:T85)</f>
+        <v/>
+      </c>
+      <c r="U86">
+        <f>SUM(U2:U85)</f>
+        <v/>
+      </c>
+      <c r="V86">
+        <f>SUM(V2:V85)</f>
+        <v/>
+      </c>
+      <c r="W86">
+        <f>SUM(W2:W85)</f>
+        <v/>
+      </c>
+      <c r="X86">
+        <f>SUM(X2:X85)</f>
+        <v/>
+      </c>
+      <c r="Y86">
+        <f>SUM(Y2:Y85)</f>
+        <v/>
+      </c>
+      <c r="Z86">
+        <f>SUM(Z2:Z85)</f>
+        <v/>
+      </c>
+      <c r="AA86">
+        <f>SUM(AA2:AA85)</f>
+        <v/>
+      </c>
+      <c r="AB86">
+        <f>SUM(AB2:AB85)</f>
+        <v/>
+      </c>
+      <c r="AC86">
+        <f>SUM(AC2:AC85)</f>
+        <v/>
+      </c>
+      <c r="AD86">
+        <f>SUM(AD2:AD85)</f>
+        <v/>
+      </c>
+      <c r="AE86">
+        <f>SUM(AE2:AE85)</f>
+        <v/>
+      </c>
+      <c r="AF86">
+        <f>SUM(AF2:AF85)</f>
+        <v/>
+      </c>
+      <c r="AG86">
+        <f>SUM(AG2:AG85)</f>
+        <v/>
+      </c>
+      <c r="AH86">
+        <f>SUM(AH2:AH85)</f>
+        <v/>
+      </c>
+      <c r="AI86">
+        <f>SUM(AI2:AI85)</f>
+        <v/>
+      </c>
+      <c r="AJ86">
+        <f>SUM(AJ2:AJ85)</f>
+        <v/>
+      </c>
+      <c r="AK86">
+        <f>SUM(AK2:AK85)</f>
+        <v/>
+      </c>
+      <c r="AL86">
+        <f>SUM(AL2:AL85)</f>
+        <v/>
+      </c>
+      <c r="AM86">
+        <f>SUM(AM2:AM85)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
